--- a/design/新建 Microsoft Excel 工作表.xlsx
+++ b/design/新建 Microsoft Excel 工作表.xlsx
@@ -5,15 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Godot\Cards of Gun\design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B8C553B-8443-476A-A121-0D1FBAFD3267}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4810EC53-3F94-45F3-9DF5-F313F741D373}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2017" yWindow="4552" windowWidth="18001" windowHeight="10433" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="36">
   <si>
     <t>装弹</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -83,6 +84,96 @@
   <si>
     <t>抵消射击次数并
 造成超出的伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出牌的概率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出牌的数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AI的出牌1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AI的出牌2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AI弹药达到上限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>装填</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1或2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他条件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AI的出牌3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优先级
+Max：10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>条件：玩家
+的弹药数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>条件：AI
+的弹药数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -206,16 +297,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -245,6 +335,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -525,187 +645,699 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I12"/>
+  <dimension ref="F1:L24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:P31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="6" width="20.59765625" customWidth="1"/>
-    <col min="7" max="9" width="10.59765625" customWidth="1"/>
+    <col min="3" max="5" width="26.77734375" customWidth="1"/>
+    <col min="6" max="10" width="20.5546875" customWidth="1"/>
+    <col min="11" max="11" width="21" customWidth="1"/>
+    <col min="12" max="12" width="21.109375" customWidth="1"/>
+    <col min="13" max="13" width="19.44140625" customWidth="1"/>
+    <col min="14" max="15" width="17.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="1:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="1"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
+    <row r="1" spans="6:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="6:12" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="1:9" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="1"/>
-      <c r="B3" s="5" t="s">
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+    </row>
+    <row r="3" spans="6:12" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="F3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="G3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="6" t="s">
+      <c r="H3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="I3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="J3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="1"/>
-      <c r="B4" s="8" t="s">
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+    </row>
+    <row r="4" spans="6:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F4" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="G4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="H4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="I4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="J4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="1"/>
-      <c r="B5" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="4" t="s">
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+    </row>
+    <row r="5" spans="6:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F5" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="G5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="H5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="I5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="J5" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="1"/>
-    </row>
-    <row r="6" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="1"/>
-      <c r="B6" s="8" t="s">
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+    </row>
+    <row r="6" spans="6:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F6" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="G6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="H6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="I6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="J6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="1"/>
-    </row>
-    <row r="7" spans="1:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="1"/>
-      <c r="B7" s="10" t="s">
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+    </row>
+    <row r="7" spans="6:12" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F7" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="G7" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="H7" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="I7" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="13" t="s">
+      <c r="J7" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="1:9" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+    </row>
+    <row r="8" spans="6:12" ht="19.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="6:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="6:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="6:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="6:12" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="6:12" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="6:12" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="6:12" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="6:12" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="17" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="18" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="19" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="20" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="21" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="22" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="23" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="24" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAF89388-AEFE-443D-BBA5-09E8468A587A}">
+  <dimension ref="B5:Q23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K23" sqref="K23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="5.77734375" customWidth="1"/>
+    <col min="4" max="4" width="12.21875" customWidth="1"/>
+    <col min="5" max="5" width="10.44140625" customWidth="1"/>
+    <col min="6" max="6" width="15.88671875" customWidth="1"/>
+    <col min="8" max="8" width="10" customWidth="1"/>
+    <col min="9" max="9" width="10.5546875" customWidth="1"/>
+    <col min="10" max="10" width="10.77734375" customWidth="1"/>
+    <col min="11" max="11" width="10.5546875" customWidth="1"/>
+    <col min="12" max="12" width="11" customWidth="1"/>
+    <col min="13" max="13" width="10.5546875" customWidth="1"/>
+    <col min="14" max="14" width="10.44140625" customWidth="1"/>
+    <col min="15" max="15" width="10.77734375" customWidth="1"/>
+    <col min="16" max="16" width="10.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="2:17" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="2:17" ht="28.2" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="1"/>
+      <c r="C6" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="J6" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="K6" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="L6" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="M6" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="N6" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="O6" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="P6" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q6" s="1"/>
+    </row>
+    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B7" s="1"/>
+      <c r="C7" s="16">
+        <v>1</v>
+      </c>
+      <c r="D7" s="17">
+        <v>0</v>
+      </c>
+      <c r="E7" s="17">
+        <v>0</v>
+      </c>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17">
+        <v>10</v>
+      </c>
+      <c r="H7" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="I7" s="17">
+        <v>1</v>
+      </c>
+      <c r="J7" s="18">
+        <v>1</v>
+      </c>
+      <c r="K7" s="17"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="18"/>
+      <c r="N7" s="17"/>
+      <c r="O7" s="17"/>
+      <c r="P7" s="18"/>
+      <c r="Q7" s="1"/>
+    </row>
+    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-    </row>
-    <row r="9" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="1"/>
+      <c r="C8" s="16">
+        <v>2</v>
+      </c>
+      <c r="D8" s="17">
+        <v>1</v>
+      </c>
+      <c r="E8" s="17">
+        <v>0</v>
+      </c>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="I8" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="J8" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="K8" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="L8" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="M8" s="18">
+        <v>1</v>
+      </c>
+      <c r="N8" s="17"/>
+      <c r="O8" s="17"/>
+      <c r="P8" s="18"/>
+      <c r="Q8" s="1"/>
+    </row>
+    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="1"/>
+      <c r="C9" s="16">
+        <v>3</v>
+      </c>
+      <c r="D9" s="17">
+        <v>2</v>
+      </c>
+      <c r="E9" s="17">
+        <v>0</v>
+      </c>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="I9" s="17">
+        <v>0.2</v>
+      </c>
+      <c r="J9" s="18">
+        <v>2</v>
+      </c>
+      <c r="K9" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="L9" s="17">
+        <v>0.8</v>
+      </c>
+      <c r="M9" s="18">
+        <v>1</v>
+      </c>
+      <c r="N9" s="17"/>
+      <c r="O9" s="17"/>
+      <c r="P9" s="18"/>
+      <c r="Q9" s="1"/>
+    </row>
+    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-    </row>
-    <row r="11" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
+      <c r="C10" s="16">
+        <v>4</v>
+      </c>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="17"/>
+      <c r="M10" s="18"/>
+      <c r="N10" s="17"/>
+      <c r="O10" s="17"/>
+      <c r="P10" s="18"/>
+      <c r="Q10" s="1"/>
+    </row>
+    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B11" s="1"/>
+      <c r="C11" s="16">
+        <v>5</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="17">
+        <v>1</v>
+      </c>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="I11" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="J11" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="K11" s="17"/>
+      <c r="L11" s="17"/>
+      <c r="M11" s="18"/>
+      <c r="N11" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="O11" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="P11" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q11" s="1"/>
+    </row>
+    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B12" s="1"/>
+      <c r="C12" s="16">
+        <v>6</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="17">
+        <v>1</v>
+      </c>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="I12" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="J12" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="K12" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="L12" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="M12" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="N12" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="O12" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="P12" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q12" s="1"/>
+    </row>
+    <row r="13" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B13" s="1"/>
+      <c r="C13" s="16">
+        <v>7</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="17">
+        <v>1</v>
+      </c>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="I13" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="J13" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="K13" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="L13" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="M13" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="N13" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="O13" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="P13" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q13" s="1"/>
+    </row>
+    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B14" s="1"/>
+      <c r="C14" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="17"/>
+      <c r="L14" s="17"/>
+      <c r="M14" s="18"/>
+      <c r="N14" s="17"/>
+      <c r="O14" s="17"/>
+      <c r="P14" s="18"/>
+      <c r="Q14" s="1"/>
+    </row>
+    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B15" s="1"/>
+      <c r="C15" s="16">
+        <v>9</v>
+      </c>
+      <c r="D15" s="17">
+        <v>1</v>
+      </c>
+      <c r="E15" s="17">
+        <v>2</v>
+      </c>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="I15" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="J15" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="K15" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="L15" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="M15" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="N15" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="O15" s="17"/>
+      <c r="P15" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q15" s="1"/>
+    </row>
+    <row r="16" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B16" s="1"/>
+      <c r="C16" s="16">
+        <v>10</v>
+      </c>
+      <c r="D16" s="17">
+        <v>2</v>
+      </c>
+      <c r="E16" s="17">
+        <v>2</v>
+      </c>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="I16" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="J16" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="K16" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="L16" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="M16" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="N16" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="O16" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="P16" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q16" s="1"/>
+    </row>
+    <row r="17" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B17" s="1"/>
+      <c r="C17" s="16">
+        <v>11</v>
+      </c>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="18"/>
+      <c r="K17" s="17"/>
+      <c r="L17" s="17"/>
+      <c r="M17" s="18"/>
+      <c r="N17" s="17"/>
+      <c r="O17" s="17"/>
+      <c r="P17" s="18"/>
+      <c r="Q17" s="1"/>
+    </row>
+    <row r="18" spans="2:17" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="1"/>
+      <c r="C18" s="16">
+        <v>12</v>
+      </c>
+      <c r="D18" s="17"/>
+      <c r="E18" s="19">
+        <v>3</v>
+      </c>
+      <c r="F18" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="19">
+        <v>10</v>
+      </c>
+      <c r="H18" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="I18" s="17">
+        <v>1</v>
+      </c>
+      <c r="J18" s="18">
+        <v>1</v>
+      </c>
+      <c r="K18" s="17"/>
+      <c r="L18" s="17"/>
+      <c r="M18" s="18"/>
+      <c r="N18" s="17"/>
+      <c r="O18" s="17"/>
+      <c r="P18" s="18"/>
+      <c r="Q18" s="1"/>
+    </row>
+    <row r="19" spans="2:17" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="C19" s="13"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="24"/>
+      <c r="I19" s="24"/>
+      <c r="J19" s="24"/>
+      <c r="K19" s="25"/>
+      <c r="L19" s="25"/>
+      <c r="M19" s="26"/>
+      <c r="N19" s="25"/>
+      <c r="O19" s="25"/>
+      <c r="P19" s="26"/>
+    </row>
+    <row r="20" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="C20" s="16"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="18"/>
+      <c r="K20" s="20"/>
+      <c r="L20" s="20"/>
+      <c r="M20" s="21"/>
+      <c r="N20" s="20"/>
+      <c r="O20" s="20"/>
+      <c r="P20" s="21"/>
+    </row>
+    <row r="21" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="C21" s="16"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="18"/>
+      <c r="K21" s="20"/>
+      <c r="L21" s="20"/>
+      <c r="M21" s="21"/>
+      <c r="N21" s="20"/>
+      <c r="O21" s="20"/>
+      <c r="P21" s="21"/>
+    </row>
+    <row r="22" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="C22" s="16"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="18"/>
+      <c r="K22" s="22"/>
+      <c r="L22" s="22"/>
+      <c r="M22" s="22"/>
+      <c r="N22" s="22"/>
+      <c r="O22" s="22"/>
+      <c r="P22" s="22"/>
+    </row>
+    <row r="23" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="C23" s="22"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="22"/>
+      <c r="J23" s="22"/>
+      <c r="K23" s="22"/>
+      <c r="L23" s="22"/>
+      <c r="M23" s="22"/>
+      <c r="N23" s="22"/>
+      <c r="O23" s="22"/>
+      <c r="P23" s="22"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
